--- a/Excel/Task_任务.xlsx
+++ b/Excel/Task_任务.xlsx
@@ -126,7 +126,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="52">
   <si>
     <t xml:space="preserve">int</t>
   </si>
@@ -282,18 +282,6 @@
   </si>
   <si>
     <t xml:space="preserve">201|0||205|4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">接取任务|巨龙来袭</t>
-  </si>
-  <si>
-    <t xml:space="preserve">与旅行商人对话|击败火龙王</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30|32</t>
-  </si>
-  <si>
-    <t xml:space="preserve">201|0||205|5</t>
   </si>
 </sst>
 </file>
@@ -314,19 +302,16 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -506,14 +491,14 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Q10"/>
+  <dimension ref="A1:Q1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="4" ySplit="4" topLeftCell="G5" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="G1" activeCellId="0" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="H9" activeCellId="0" sqref="H9"/>
+      <selection pane="bottomRight" activeCell="I20" activeCellId="0" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.2578125" defaultRowHeight="16.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -929,50 +914,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="n">
-        <v>1005</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D10" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="E10" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F10" s="1" t="n">
-        <v>110009</v>
-      </c>
-      <c r="G10" s="1" t="n">
-        <v>137787</v>
-      </c>
-      <c r="H10" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="L10" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
